--- a/data/Статистические_данные_показателей_СЭР_cut.xlsx
+++ b/data/Статистические_данные_показателей_СЭР_cut.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anastasiya.gotfrid\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\abuzuverov\krit_task\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FCA83D-054F-40B9-88FA-7303D53C099C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2565CDD4-7520-4487-9BB0-D58390CD7269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94245B0B-3E45-426E-9011-79362D59AA4B}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{94245B0B-3E45-426E-9011-79362D59AA4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Форма 2П" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Форма 2П'!$A$1:$O$50</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Форма 2П'!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Форма 2П'!$A$1:$O$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -353,9 +353,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -371,9 +371,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -411,7 +411,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -517,7 +517,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -670,28 +670,28 @@
   <dimension ref="A1:BK50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="A46" sqref="A46"/>
+      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.25" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.86328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.40625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="15" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6" max="15" width="9.7265625" style="1" customWidth="1"/>
     <col min="16" max="18" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.42578125" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="26" max="26" width="10.40625" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:63" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="12" t="s">
         <v>48</v>
       </c>
@@ -771,7 +771,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:63" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
@@ -851,7 +851,7 @@
         <v>1533700</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:63" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>46</v>
       </c>
@@ -927,7 +927,7 @@
         <v>101.4</v>
       </c>
     </row>
-    <row r="4" spans="1:63" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:63" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>45</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>104.3</v>
       </c>
     </row>
-    <row r="5" spans="1:63" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:63" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
         <v>44</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>102.4</v>
       </c>
     </row>
-    <row r="6" spans="1:63" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:63" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>163487.10999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:63" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:63" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A7" s="5" t="s">
         <v>42</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>100.3</v>
       </c>
     </row>
-    <row r="8" spans="1:63" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:63" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A8" s="5" t="s">
         <v>41</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>73675.753333333399</v>
       </c>
     </row>
-    <row r="9" spans="1:63" s="10" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:63" s="10" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A9" s="5" t="s">
         <v>40</v>
       </c>
@@ -1416,7 +1416,7 @@
       <c r="BJ9" s="2"/>
       <c r="BK9" s="2"/>
     </row>
-    <row r="10" spans="1:63" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:63" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>100359.266666667</v>
       </c>
     </row>
-    <row r="11" spans="1:63" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:63" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A11" s="5" t="s">
         <v>38</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>101.62</v>
       </c>
     </row>
-    <row r="12" spans="1:63" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:63" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>199327.6</v>
       </c>
     </row>
-    <row r="13" spans="1:63" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:63" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
         <v>36</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>105.7</v>
       </c>
     </row>
-    <row r="14" spans="1:63" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:63" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="15" spans="1:63" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:63" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>104.2</v>
       </c>
     </row>
-    <row r="16" spans="1:63" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:63" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>923069.2</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>101.8</v>
       </c>
     </row>
-    <row r="18" spans="1:26" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>103.1</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>273385.3</v>
       </c>
     </row>
-    <row r="20" spans="1:26" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A20" s="4" t="s">
         <v>29</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>104.4</v>
       </c>
     </row>
-    <row r="21" spans="1:26" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>4237.42</v>
       </c>
     </row>
-    <row r="22" spans="1:26" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A22" s="4" t="s">
         <v>27</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>715.04</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A23" s="4" t="s">
         <v>25</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>609.91999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A24" s="4" t="s">
         <v>26</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>1098.92</v>
       </c>
     </row>
-    <row r="25" spans="1:26" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>105.12</v>
       </c>
     </row>
-    <row r="26" spans="1:26" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>297569.3</v>
       </c>
     </row>
-    <row r="27" spans="1:26" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>104.8</v>
       </c>
     </row>
-    <row r="28" spans="1:26" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A28" s="4" t="s">
         <v>22</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A29" s="4" t="s">
         <v>21</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:26" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A30" s="4" t="s">
         <v>20</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>112362.2</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>78082.2</v>
       </c>
     </row>
-    <row r="32" spans="1:26" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A32" s="4" t="s">
         <v>18</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>33184.9</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A33" s="4" t="s">
         <v>17</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>5465.8</v>
       </c>
     </row>
-    <row r="34" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
         <v>16</v>
       </c>
@@ -3234,16 +3234,12 @@
         <v>21008</v>
       </c>
     </row>
-    <row r="35" spans="1:27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="3">
-        <v>0</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0</v>
-      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
       <c r="D35" s="3">
         <v>-115.6</v>
       </c>
@@ -3316,7 +3312,7 @@
       </c>
       <c r="AA35" s="6"/>
     </row>
-    <row r="36" spans="1:27" s="2" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" s="2" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="5" t="s">
         <v>14</v>
       </c>
@@ -3384,7 +3380,7 @@
         <v>9262.5400000000009</v>
       </c>
     </row>
-    <row r="37" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A37" s="4" t="s">
         <v>13</v>
       </c>
@@ -3452,7 +3448,7 @@
         <v>9838.6200000000008</v>
       </c>
     </row>
-    <row r="38" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A38" s="4" t="s">
         <v>12</v>
       </c>
@@ -3520,7 +3516,7 @@
         <v>7550.32</v>
       </c>
     </row>
-    <row r="39" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A39" s="4" t="s">
         <v>11</v>
       </c>
@@ -3588,7 +3584,7 @@
         <v>9320.7000000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="4" t="s">
         <v>10</v>
       </c>
@@ -3660,7 +3656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A41" s="4" t="s">
         <v>9</v>
       </c>
@@ -3730,22 +3726,22 @@
         <v>1953.06</v>
       </c>
     </row>
-    <row r="42" spans="1:27" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" s="2" customFormat="1" ht="17.5" x14ac:dyDescent="0.5">
       <c r="A42" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3">
-        <v>1.7315</v>
+        <v>1731.5</v>
       </c>
       <c r="D42" s="3">
-        <v>1.6805000000000001</v>
+        <v>1680.5</v>
       </c>
       <c r="E42" s="3">
-        <v>1.6659000000000002</v>
+        <v>1665.9</v>
       </c>
       <c r="F42" s="3">
-        <v>1742.6000000000001</v>
+        <v>1742.6</v>
       </c>
       <c r="G42" s="3">
         <v>1746.2</v>
@@ -3808,7 +3804,7 @@
         <v>1702.2</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -3888,7 +3884,7 @@
         <v>36124.1</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" s="2" customFormat="1" ht="17.5" x14ac:dyDescent="0.5">
       <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
@@ -3968,7 +3964,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A45" s="5" t="s">
         <v>5</v>
       </c>
@@ -4048,7 +4044,7 @@
         <v>102.1</v>
       </c>
     </row>
-    <row r="46" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A46" s="5" t="s">
         <v>4</v>
       </c>
@@ -4126,7 +4122,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A47" s="5" t="s">
         <v>3</v>
       </c>
@@ -4204,7 +4200,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A48" s="5" t="s">
         <v>2</v>
       </c>
@@ -4274,7 +4270,7 @@
         <v>95.7</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A49" s="4" t="s">
         <v>1</v>
       </c>
@@ -4348,7 +4344,7 @@
         <v>475147.51</v>
       </c>
     </row>
-    <row r="50" spans="1:26" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" s="2" customFormat="1" ht="9.5" x14ac:dyDescent="0.5">
       <c r="A50" s="4" t="s">
         <v>0</v>
       </c>
